--- a/solid waste 2.xlsx
+++ b/solid waste 2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODL website\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FB5FA8-4F55-4AFD-A14A-6F3FFCDF7C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A08144A5-C942-4698-B65C-AEB83ACFF026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A714118-F5ED-4AA8-880C-BD1C17E349A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7F3E8BB-75A4-415F-9E6C-8BDD5EF6E993}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,67 +25,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Generation( TPD)</t>
-  </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Treated</t>
-  </si>
-  <si>
-    <t>Landfilled</t>
-  </si>
-  <si>
-    <t>Total Landfill Sites Operational</t>
-  </si>
-  <si>
-    <t>solid waste unaccounted</t>
-  </si>
-  <si>
-    <t>2019-20</t>
-  </si>
-  <si>
-    <t>1,50,847</t>
-  </si>
-  <si>
-    <t>2018-19</t>
-  </si>
-  <si>
-    <t>1,52,076 TPD</t>
-  </si>
-  <si>
-    <t>1,49,748TPD (98%)</t>
-  </si>
-  <si>
-    <t>55,759 TPD</t>
-  </si>
-  <si>
-    <t>50,161 TPD</t>
-  </si>
-  <si>
-    <t>21 Nos</t>
-  </si>
-  <si>
-    <t>2017-18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Uttarpradesh</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Telengana</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>INP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Pondicheri</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>M.P</t>
+  </si>
+  <si>
+    <t>NIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>J &amp; K</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Damn, Diu&amp; Dadra Nagar Haveli</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assam </t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>A&amp;N Island</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Total quantity of BMW treated &amp; disposed(kg/day)</t>
+  </si>
+  <si>
+    <t>Total quantity of BMW generated (kg/day)</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -104,12 +196,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,91 +582,3298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D473F132-BD8A-47C2-8A27-B7536F24AE5E}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0338A3B-73F6-4FBE-84FE-7E32B050A06B}">
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="23" max="23" width="17.5546875" customWidth="1"/>
+    <col min="24" max="24" width="17.77734375" customWidth="1"/>
+    <col min="25" max="25" width="17.5546875" customWidth="1"/>
+    <col min="26" max="26" width="17.33203125" customWidth="1"/>
+    <col min="27" max="27" width="17.5546875" customWidth="1"/>
+    <col min="28" max="29" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="9">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9">
+        <v>2009</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="12">
+        <v>2010</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="9">
+        <v>2011</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9">
+        <v>2012</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9">
+        <v>2013</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10">
+        <v>2014</v>
+      </c>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9">
+        <v>2015</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9">
+        <v>2016</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9">
+        <v>2017</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9">
+        <v>2018</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9">
+        <v>2019</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9">
+        <v>2020</v>
+      </c>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9">
+        <v>2021</v>
+      </c>
+      <c r="AC1" s="9"/>
+    </row>
+    <row r="2" spans="1:29" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14200</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13018</v>
+      </c>
+      <c r="F3" s="3">
+        <v>221</v>
+      </c>
+      <c r="G3" s="2">
+        <v>221</v>
+      </c>
+      <c r="H3" s="3">
+        <v>14916</v>
+      </c>
+      <c r="I3" s="2">
+        <v>14350</v>
+      </c>
+      <c r="J3" s="3">
+        <v>22187</v>
+      </c>
+      <c r="K3" s="2">
+        <v>17104</v>
+      </c>
+      <c r="L3" s="3">
+        <v>15361</v>
+      </c>
+      <c r="M3" s="2">
+        <v>14800</v>
+      </c>
+      <c r="N3" s="3">
+        <v>8184</v>
+      </c>
+      <c r="O3" s="2">
+        <v>8119</v>
+      </c>
+      <c r="P3" s="3">
+        <v>8415</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>8415</v>
+      </c>
+      <c r="R3" s="3">
+        <v>98</v>
+      </c>
+      <c r="S3" s="2">
+        <v>98</v>
+      </c>
+      <c r="T3" s="3">
+        <v>10662.27</v>
+      </c>
+      <c r="U3" s="2">
+        <v>10662.27</v>
+      </c>
+      <c r="V3" s="3">
+        <v>15144</v>
+      </c>
+      <c r="W3" s="2">
+        <v>15144</v>
+      </c>
+      <c r="X3" s="3">
+        <v>15051.22</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>15051.22</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>25029.3</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>536.36</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>19719.87</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>19719.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3">
+        <v>963.67</v>
+      </c>
+      <c r="C4" s="2">
+        <v>963.67</v>
+      </c>
+      <c r="D4" s="3">
+        <v>407</v>
+      </c>
+      <c r="E4" s="2">
+        <v>407</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15414</v>
+      </c>
+      <c r="G4" s="2">
+        <v>13614</v>
+      </c>
+      <c r="H4" s="3">
+        <v>221</v>
+      </c>
+      <c r="I4" s="2">
+        <v>221</v>
+      </c>
+      <c r="J4" s="3">
+        <v>230</v>
+      </c>
+      <c r="K4" s="2">
+        <v>230</v>
+      </c>
+      <c r="L4" s="3">
+        <v>250</v>
+      </c>
+      <c r="M4" s="2">
+        <v>250</v>
+      </c>
+      <c r="N4" s="3">
+        <v>312</v>
+      </c>
+      <c r="O4" s="2">
+        <v>312</v>
+      </c>
+      <c r="P4" s="3">
+        <v>287.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>287.5</v>
+      </c>
+      <c r="R4" s="3">
+        <v>380</v>
+      </c>
+      <c r="S4" s="2">
+        <v>380</v>
+      </c>
+      <c r="T4" s="3">
+        <v>187</v>
+      </c>
+      <c r="U4" s="2">
+        <v>154</v>
+      </c>
+      <c r="V4" s="3">
+        <v>199.3</v>
+      </c>
+      <c r="W4" s="2">
+        <v>199.3</v>
+      </c>
+      <c r="X4" s="3">
+        <v>684.62</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>684.62</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>536.36</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>25029.3</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>542.94000000000005</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>542.94000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1368.54</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1368.54</v>
+      </c>
+      <c r="D5" s="3">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2">
+        <v>60</v>
+      </c>
+      <c r="F5" s="3">
+        <v>445</v>
+      </c>
+      <c r="G5" s="2">
+        <v>440</v>
+      </c>
+      <c r="H5" s="3">
+        <v>445</v>
+      </c>
+      <c r="I5" s="2">
+        <v>440</v>
+      </c>
+      <c r="J5" s="3">
+        <v>85</v>
+      </c>
+      <c r="K5" s="2">
+        <v>85</v>
+      </c>
+      <c r="L5" s="3">
+        <v>159</v>
+      </c>
+      <c r="M5" s="2">
+        <v>159</v>
+      </c>
+      <c r="N5" s="3">
+        <v>58</v>
+      </c>
+      <c r="O5" s="2">
+        <v>58</v>
+      </c>
+      <c r="P5" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>63</v>
+      </c>
+      <c r="R5" s="3">
+        <v>577.4</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="3">
+        <v>645.4</v>
+      </c>
+      <c r="U5" s="2">
+        <v>645.4</v>
+      </c>
+      <c r="V5" s="3">
+        <v>888.67</v>
+      </c>
+      <c r="W5" s="2">
+        <v>888.67</v>
+      </c>
+      <c r="X5" s="3">
+        <v>395</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>353.63</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>353.63</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>347.53</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>347.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5130</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1129</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4595</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2599</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4146</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3769</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4249</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4161</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4293</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4260</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4306</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4279</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6329.5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>6318.58</v>
+      </c>
+      <c r="P6" s="3">
+        <v>6885.25</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6869.25</v>
+      </c>
+      <c r="R6" s="3">
+        <v>7925.8</v>
+      </c>
+      <c r="S6" s="2">
+        <v>5698.5</v>
+      </c>
+      <c r="T6" s="3">
+        <v>8564.9500000000007</v>
+      </c>
+      <c r="U6" s="2">
+        <v>6581.27</v>
+      </c>
+      <c r="V6" s="3">
+        <v>7820.67</v>
+      </c>
+      <c r="W6" s="2">
+        <v>5869.26</v>
+      </c>
+      <c r="X6" s="3">
+        <v>8819.91</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>6234.08</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>8235.9699999999993</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>5314.22</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>8421.2099999999991</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>5359.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3384</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2403</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3572</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3095</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3808</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3808</v>
+      </c>
+      <c r="H7" s="3">
+        <v>503</v>
+      </c>
+      <c r="I7" s="2">
+        <v>503</v>
+      </c>
+      <c r="J7" s="3">
+        <v>623.9</v>
+      </c>
+      <c r="K7" s="2">
+        <v>623.9</v>
+      </c>
+      <c r="L7" s="3">
+        <v>613.04</v>
+      </c>
+      <c r="M7" s="2">
+        <v>613.04</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1280.6600000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1280.6600000000001</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1390.18</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1390.18</v>
+      </c>
+      <c r="R7" s="3">
+        <v>8827.69</v>
+      </c>
+      <c r="S7" s="2">
+        <v>8827.69</v>
+      </c>
+      <c r="T7" s="3">
+        <v>33799.97</v>
+      </c>
+      <c r="U7" s="2">
+        <v>7439.39</v>
+      </c>
+      <c r="V7" s="3">
+        <v>34812.9</v>
+      </c>
+      <c r="W7" s="2">
+        <v>10038.156000000001</v>
+      </c>
+      <c r="X7" s="3">
+        <v>34812.9</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>10777.1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>2846.15</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>10201.299999999999</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>20548.810000000001</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>13421.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1029</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1029</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1201</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1201</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1690</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1690</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1931</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1931</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2039</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2039</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2091</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2091</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2169.0500000000002</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2169.0500000000002</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2134.6799999999998</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2134.6799999999998</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1994</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1994</v>
+      </c>
+      <c r="T8" s="3">
+        <v>2503</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2503</v>
+      </c>
+      <c r="V8" s="3">
+        <v>3188</v>
+      </c>
+      <c r="W8" s="2">
+        <v>3188</v>
+      </c>
+      <c r="X8" s="3">
+        <v>3869</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>3869</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>5729</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>5729</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>5374</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4386.87</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4386.87</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5852</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5701</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4647</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4647</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4492</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4492</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4492</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4492</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6513.61</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6513.61</v>
+      </c>
+      <c r="N9" s="3">
+        <v>387.63</v>
+      </c>
+      <c r="O9" s="2">
+        <v>387.63</v>
+      </c>
+      <c r="P9" s="3">
+        <v>9263.76</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>9263.76</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1988.85</v>
+      </c>
+      <c r="S9" s="2">
+        <v>3321.14</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1104.4929999999999</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1136.2929999999999</v>
+      </c>
+      <c r="V9" s="3">
+        <v>16096</v>
+      </c>
+      <c r="W9" s="2">
+        <v>4596.99</v>
+      </c>
+      <c r="X9" s="3">
+        <v>7071.9040000000005</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>7037.4</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>7234.31</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>7234.31</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>7906.73</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>7906.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3">
+        <v>123</v>
+      </c>
+      <c r="G10" s="2">
+        <v>123</v>
+      </c>
+      <c r="H10" s="3">
+        <v>203</v>
+      </c>
+      <c r="I10" s="2">
+        <v>203</v>
+      </c>
+      <c r="J10" s="3">
+        <v>133.21</v>
+      </c>
+      <c r="K10" s="2">
+        <v>133.21</v>
+      </c>
+      <c r="L10" s="3">
+        <v>115.66</v>
+      </c>
+      <c r="M10" s="2">
+        <v>115.66</v>
+      </c>
+      <c r="N10" s="3">
+        <v>192.27</v>
+      </c>
+      <c r="O10" s="2">
+        <v>192.27</v>
+      </c>
+      <c r="P10" s="3">
+        <v>251.64</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>251.64</v>
+      </c>
+      <c r="R10" s="3">
+        <v>253.9</v>
+      </c>
+      <c r="S10" s="2">
+        <v>253.9</v>
+      </c>
+      <c r="T10" s="3">
+        <v>322</v>
+      </c>
+      <c r="U10" s="2">
+        <v>322</v>
+      </c>
+      <c r="V10" s="3">
+        <v>331</v>
+      </c>
+      <c r="W10" s="2">
+        <v>331</v>
+      </c>
+      <c r="X10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>450</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>450</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>553.85</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>553.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8522.93</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8522.93</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9859</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9859</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10125</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10125</v>
+      </c>
+      <c r="H11" s="3">
+        <v>13641</v>
+      </c>
+      <c r="I11" s="2">
+        <v>13641</v>
+      </c>
+      <c r="J11" s="3">
+        <v>13911.65</v>
+      </c>
+      <c r="K11" s="2">
+        <v>13921.65</v>
+      </c>
+      <c r="L11" s="3">
+        <v>13351</v>
+      </c>
+      <c r="M11" s="2">
+        <v>13351</v>
+      </c>
+      <c r="N11" s="3">
+        <v>14941.07</v>
+      </c>
+      <c r="O11" s="2">
+        <v>14941.07</v>
+      </c>
+      <c r="P11" s="3">
+        <v>14644.71</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>14644.71</v>
+      </c>
+      <c r="R11" s="3">
+        <v>24996.44</v>
+      </c>
+      <c r="S11" s="2">
+        <v>24996.44</v>
+      </c>
+      <c r="T11" s="3">
+        <v>24667.05</v>
+      </c>
+      <c r="U11" s="2">
+        <v>24667.05</v>
+      </c>
+      <c r="V11" s="3">
+        <v>26757.5</v>
+      </c>
+      <c r="W11" s="2">
+        <v>26757.5</v>
+      </c>
+      <c r="X11" s="3">
+        <v>28785.15</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>28785.15</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>23200.09</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>23200.09</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>25828.35</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>25828.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1179.55</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1179.55</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2438</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2438</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4051</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4051</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4951</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4951</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5720.46</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5720.46</v>
+      </c>
+      <c r="L12" s="3">
+        <v>33700</v>
+      </c>
+      <c r="M12" s="2">
+        <v>33700</v>
+      </c>
+      <c r="N12" s="3">
+        <v>9586</v>
+      </c>
+      <c r="O12" s="2">
+        <v>9586</v>
+      </c>
+      <c r="P12" s="3">
+        <v>7922.4</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>7922.4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2660.34</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2659.92</v>
+      </c>
+      <c r="T12" s="3">
+        <v>874</v>
+      </c>
+      <c r="U12" s="2">
+        <v>874</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1837.1</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1837.1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1488.95</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1488.95</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1272.68</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>1272.68</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1129</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <v>25765</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>16565</v>
+      </c>
+      <c r="E13" s="2">
+        <v>16565</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20090</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20090</v>
+      </c>
+      <c r="H13" s="3">
+        <v>19660</v>
+      </c>
+      <c r="I13" s="2">
+        <v>19660</v>
+      </c>
+      <c r="J13" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K13" s="2">
+        <v>23500</v>
+      </c>
+      <c r="L13" s="3">
+        <v>9268</v>
+      </c>
+      <c r="M13" s="2">
+        <v>9268</v>
+      </c>
+      <c r="N13" s="3">
+        <v>29900</v>
+      </c>
+      <c r="O13" s="2">
+        <v>29900</v>
+      </c>
+      <c r="P13" s="3">
+        <v>32700</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>32700</v>
+      </c>
+      <c r="R13" s="3">
+        <v>30296</v>
+      </c>
+      <c r="S13" s="2">
+        <v>30296</v>
+      </c>
+      <c r="T13" s="3">
+        <v>29070</v>
+      </c>
+      <c r="U13" s="2">
+        <v>29070</v>
+      </c>
+      <c r="V13" s="3">
+        <v>33706</v>
+      </c>
+      <c r="W13" s="2">
+        <v>33706</v>
+      </c>
+      <c r="X13" s="3">
+        <v>36421</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>36421</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>49492</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>49492</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>52800</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6067</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5994</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7069</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6868</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7109</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6559</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8115</v>
+      </c>
+      <c r="I14" s="2">
+        <v>8115</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8695.11</v>
+      </c>
+      <c r="K14" s="2">
+        <v>8695.11</v>
+      </c>
+      <c r="L14" s="3">
+        <v>7860.48</v>
+      </c>
+      <c r="M14" s="2">
+        <v>7860.48</v>
+      </c>
+      <c r="N14" s="3">
+        <v>6952.73</v>
+      </c>
+      <c r="O14" s="2">
+        <v>6952.73</v>
+      </c>
+      <c r="P14" s="3">
+        <v>10109</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>10109</v>
+      </c>
+      <c r="R14" s="3">
+        <v>11171.02</v>
+      </c>
+      <c r="S14" s="2">
+        <v>12045.3</v>
+      </c>
+      <c r="T14" s="3">
+        <v>11662.91</v>
+      </c>
+      <c r="U14" s="2">
+        <v>11662.91</v>
+      </c>
+      <c r="V14" s="3">
+        <v>14217.88</v>
+      </c>
+      <c r="W14" s="2">
+        <v>14217.88</v>
+      </c>
+      <c r="X14" s="3">
+        <v>14810</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>14810</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>19217</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>19217</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>21436</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>21436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1128</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1128</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1278</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1278</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1417</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1417</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1890</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1890</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2858.4</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2858.4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2282.5</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2282.5</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1472.9</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1472.9</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2049.5</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2049.5</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1717.7</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1717.7</v>
+      </c>
+      <c r="T15" s="3">
+        <v>3018.8</v>
+      </c>
+      <c r="U15" s="2">
+        <v>3027.6</v>
+      </c>
+      <c r="V15" s="3">
+        <v>2570.12</v>
+      </c>
+      <c r="W15" s="2">
+        <v>2570.12</v>
+      </c>
+      <c r="X15" s="3">
+        <v>3406.6</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>3406.6</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>3545.78</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>3545.78</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>4130.3</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>4067.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
+        <v>28975.26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11724.12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5415</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4763</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5520</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4560</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5534</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5534</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4810.2700000000004</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4810.2700000000004</v>
+      </c>
+      <c r="L16" s="3">
+        <v>6308.8</v>
+      </c>
+      <c r="M16" s="2">
+        <v>6308.8</v>
+      </c>
+      <c r="N16" s="3">
+        <v>5703.26</v>
+      </c>
+      <c r="O16" s="2">
+        <v>3502.346</v>
+      </c>
+      <c r="P16" s="3">
+        <v>9222.2199999999993</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>9222.2199999999993</v>
+      </c>
+      <c r="R16" s="3">
+        <v>12829.98</v>
+      </c>
+      <c r="S16" s="2">
+        <v>2353</v>
+      </c>
+      <c r="T16" s="3">
+        <v>12498.04</v>
+      </c>
+      <c r="U16" s="2">
+        <v>10979.99</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1288.2</v>
+      </c>
+      <c r="W16" s="2">
+        <v>6720.62</v>
+      </c>
+      <c r="X16" s="3">
+        <v>7671.45</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>7671.45</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>8406.7317000000003</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>8406.7317000000003</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>7523.86</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>5756.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6646.5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4827</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2634</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4667</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2603</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4189</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2829</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4359</v>
+      </c>
+      <c r="K17" s="2">
+        <v>3013</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4433</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3102</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4682</v>
+      </c>
+      <c r="O17" s="2">
+        <v>3377.5</v>
+      </c>
+      <c r="P17" s="3">
+        <v>4794.34</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3409.34</v>
+      </c>
+      <c r="R17" s="3">
+        <v>885.94</v>
+      </c>
+      <c r="S17" s="2">
+        <v>402.43</v>
+      </c>
+      <c r="T17" s="3">
+        <v>4618.58</v>
+      </c>
+      <c r="U17" s="2">
+        <v>4172.7</v>
+      </c>
+      <c r="V17" s="3">
+        <v>4482.8999999999996</v>
+      </c>
+      <c r="W17" s="2">
+        <v>4279.96</v>
+      </c>
+      <c r="X17" s="3">
+        <v>5902.62</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>5896.25</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>5941.81</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>5941.81</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>7663.5</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>7663.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3">
+        <v>60018</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42462</v>
+      </c>
+      <c r="D18" s="3">
+        <v>62241</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43971</v>
+      </c>
+      <c r="F18" s="3">
+        <v>73138</v>
+      </c>
+      <c r="G18" s="2">
+        <v>53865</v>
+      </c>
+      <c r="H18" s="3">
+        <v>80028</v>
+      </c>
+      <c r="I18" s="2">
+        <v>68165</v>
+      </c>
+      <c r="J18" s="3">
+        <v>82812</v>
+      </c>
+      <c r="K18" s="2">
+        <v>75899</v>
+      </c>
+      <c r="L18" s="3">
+        <v>83614</v>
+      </c>
+      <c r="M18" s="2">
+        <v>78866</v>
+      </c>
+      <c r="N18" s="3">
+        <v>82123</v>
+      </c>
+      <c r="O18" s="2">
+        <v>82123</v>
+      </c>
+      <c r="P18" s="3">
+        <v>51560</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>51560</v>
+      </c>
+      <c r="R18" s="3">
+        <v>66468</v>
+      </c>
+      <c r="S18" s="2">
+        <v>66468</v>
+      </c>
+      <c r="T18" s="3">
+        <v>67339</v>
+      </c>
+      <c r="U18" s="2">
+        <v>67339</v>
+      </c>
+      <c r="V18" s="3">
+        <v>65621.2</v>
+      </c>
+      <c r="W18" s="2">
+        <v>65621.2</v>
+      </c>
+      <c r="X18" s="3">
+        <v>77545.600000000006</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>36299.81</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>82604</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>38951</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>77639</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>48096.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>55425</v>
+      </c>
+      <c r="C19" s="2">
+        <v>47806</v>
+      </c>
+      <c r="D19" s="3">
+        <v>32884</v>
+      </c>
+      <c r="E19" s="2">
+        <v>29438</v>
+      </c>
+      <c r="F19" s="3">
+        <v>34679</v>
+      </c>
+      <c r="G19" s="2">
+        <v>30565</v>
+      </c>
+      <c r="H19" s="3">
+        <v>40252</v>
+      </c>
+      <c r="I19" s="2">
+        <v>36759</v>
+      </c>
+      <c r="J19" s="3">
+        <v>40252</v>
+      </c>
+      <c r="K19" s="2">
+        <v>36759</v>
+      </c>
+      <c r="L19" s="3">
+        <v>47223.839999999997</v>
+      </c>
+      <c r="M19" s="2">
+        <v>44653.760000000002</v>
+      </c>
+      <c r="N19" s="3">
+        <v>52794.42</v>
+      </c>
+      <c r="O19" s="2">
+        <v>50631.15</v>
+      </c>
+      <c r="P19" s="3">
+        <v>53169.1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>53169.1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>37773.449999999997</v>
+      </c>
+      <c r="S19" s="2">
+        <v>37773.449999999997</v>
+      </c>
+      <c r="T19" s="3">
+        <v>40990</v>
+      </c>
+      <c r="U19" s="2">
+        <v>38869.379999999997</v>
+      </c>
+      <c r="V19" s="3">
+        <v>71976.14</v>
+      </c>
+      <c r="W19" s="2">
+        <v>42225.8</v>
+      </c>
+      <c r="X19" s="3">
+        <v>42932</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>40270</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>40408</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>40207</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>61136</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>61136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2">
+        <v>40</v>
+      </c>
+      <c r="H20" s="3">
+        <v>50</v>
+      </c>
+      <c r="I20" s="2">
+        <v>50</v>
+      </c>
+      <c r="J20" s="3">
+        <v>50</v>
+      </c>
+      <c r="K20" s="2">
+        <v>50</v>
+      </c>
+      <c r="L20" s="3">
+        <v>50</v>
+      </c>
+      <c r="M20" s="2">
+        <v>50</v>
+      </c>
+      <c r="N20" s="3">
+        <v>70</v>
+      </c>
+      <c r="O20" s="2">
+        <v>55</v>
+      </c>
+      <c r="P20" s="3">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>55</v>
+      </c>
+      <c r="R20" s="3">
+        <v>80</v>
+      </c>
+      <c r="S20" s="2">
+        <v>80</v>
+      </c>
+      <c r="T20" s="3">
+        <v>423</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="3">
+        <v>527</v>
+      </c>
+      <c r="W20" s="2">
+        <v>110</v>
+      </c>
+      <c r="X20" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>100.5</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1137</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1137</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>86.76</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>86.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4072.8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3654.9</v>
+      </c>
+      <c r="D21" s="3">
+        <v>65231</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4713</v>
+      </c>
+      <c r="F21" s="3">
+        <v>7294</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7088</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8250</v>
+      </c>
+      <c r="I21" s="2">
+        <v>7911</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9405.15</v>
+      </c>
+      <c r="K21" s="2">
+        <v>9014.73</v>
+      </c>
+      <c r="L21" s="3">
+        <v>8960</v>
+      </c>
+      <c r="M21" s="2">
+        <v>8691</v>
+      </c>
+      <c r="N21" s="3">
+        <v>9409</v>
+      </c>
+      <c r="O21" s="2">
+        <v>9140</v>
+      </c>
+      <c r="P21" s="3">
+        <v>10714</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>10654</v>
+      </c>
+      <c r="R21" s="3">
+        <v>12810</v>
+      </c>
+      <c r="S21" s="2">
+        <v>12810</v>
+      </c>
+      <c r="T21" s="3">
+        <v>14824</v>
+      </c>
+      <c r="U21" s="2">
+        <v>13569</v>
+      </c>
+      <c r="V21" s="3">
+        <v>15846.74</v>
+      </c>
+      <c r="W21" s="2">
+        <v>14547.37</v>
+      </c>
+      <c r="X21" s="3">
+        <v>17846.68</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>17289</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>20008.91</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>19003.55</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>19754.330000000002</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>19124.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>42860.800000000003</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42860.800000000003</v>
+      </c>
+      <c r="D22" s="3">
+        <v>40197</v>
+      </c>
+      <c r="E22" s="2">
+        <v>40197</v>
+      </c>
+      <c r="F22" s="3">
+        <v>43740</v>
+      </c>
+      <c r="G22" s="2">
+        <v>42437</v>
+      </c>
+      <c r="H22" s="3">
+        <v>44766</v>
+      </c>
+      <c r="I22" s="2">
+        <v>44416</v>
+      </c>
+      <c r="J22" s="3">
+        <v>45089.599999999999</v>
+      </c>
+      <c r="K22" s="2">
+        <v>44955</v>
+      </c>
+      <c r="L22" s="3">
+        <v>65660.84</v>
+      </c>
+      <c r="M22" s="2">
+        <v>65446.74</v>
+      </c>
+      <c r="N22" s="3">
+        <v>53385.5</v>
+      </c>
+      <c r="O22" s="2">
+        <v>53385.5</v>
+      </c>
+      <c r="P22" s="3">
+        <v>62470</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>62204</v>
+      </c>
+      <c r="R22" s="3">
+        <v>71511.5</v>
+      </c>
+      <c r="S22" s="2">
+        <v>71511.5</v>
+      </c>
+      <c r="T22" s="3">
+        <v>61918</v>
+      </c>
+      <c r="U22" s="2">
+        <v>61918</v>
+      </c>
+      <c r="V22" s="3">
+        <v>62418</v>
+      </c>
+      <c r="W22" s="2">
+        <v>62134</v>
+      </c>
+      <c r="X22" s="3">
+        <v>62254.62</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>62253.18</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>82146.350000000006</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>82111.820000000007</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>80314</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>80314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>503.24</v>
+      </c>
+      <c r="C23" s="2">
+        <v>503.24</v>
+      </c>
+      <c r="D23" s="3">
+        <v>412</v>
+      </c>
+      <c r="E23" s="2">
+        <v>412</v>
+      </c>
+      <c r="F23" s="3">
+        <v>335</v>
+      </c>
+      <c r="G23" s="2">
+        <v>335</v>
+      </c>
+      <c r="H23" s="3">
+        <v>437</v>
+      </c>
+      <c r="I23" s="2">
+        <v>409</v>
+      </c>
+      <c r="J23" s="3">
+        <v>414.71</v>
+      </c>
+      <c r="K23" s="2">
+        <v>355.03</v>
+      </c>
+      <c r="L23" s="3">
+        <v>571.16999999999996</v>
+      </c>
+      <c r="M23" s="2">
+        <v>571.16999999999996</v>
+      </c>
+      <c r="N23" s="3">
+        <v>372.55</v>
+      </c>
+      <c r="O23" s="2">
+        <v>372.55</v>
+      </c>
+      <c r="P23" s="3">
+        <v>372.55</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>372.55</v>
+      </c>
+      <c r="R23" s="3">
+        <v>367.49</v>
+      </c>
+      <c r="S23" s="2">
+        <v>367.49</v>
+      </c>
+      <c r="T23" s="3">
+        <v>529.14</v>
+      </c>
+      <c r="U23" s="2">
+        <v>529.14</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1140.1600000000001</v>
+      </c>
+      <c r="W23" s="2">
+        <v>905</v>
+      </c>
+      <c r="X23" s="3">
+        <v>953.1</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>864.8</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>921.9</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>888.5</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1166.1300000000001</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>1266.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1000.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1000.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>578</v>
+      </c>
+      <c r="E24" s="2">
+        <v>578</v>
+      </c>
+      <c r="F24" s="3">
+        <v>727</v>
+      </c>
+      <c r="G24" s="2">
+        <v>727</v>
+      </c>
+      <c r="H24" s="3">
+        <v>679</v>
+      </c>
+      <c r="I24" s="2">
+        <v>679</v>
+      </c>
+      <c r="J24" s="3">
+        <v>651.9</v>
+      </c>
+      <c r="K24" s="2">
+        <v>651.9</v>
+      </c>
+      <c r="L24" s="3">
+        <v>631.48</v>
+      </c>
+      <c r="M24" s="2">
+        <v>631.48</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1068.78</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1068.78</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1157.54</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1157.54</v>
+      </c>
+      <c r="R24" s="3">
+        <v>972.97</v>
+      </c>
+      <c r="S24" s="2">
+        <v>972.97</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1061.6500000000001</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1061.5</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1432.87</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1432.87</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1276.24</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>1276.24</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1556.95</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>1556.95</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1287</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3">
+        <v>821.47</v>
+      </c>
+      <c r="C25" s="2">
+        <v>798.27</v>
+      </c>
+      <c r="D25" s="3">
+        <v>631</v>
+      </c>
+      <c r="E25" s="2">
+        <v>560</v>
+      </c>
+      <c r="F25" s="3">
+        <v>553</v>
+      </c>
+      <c r="G25" s="2">
+        <v>519</v>
+      </c>
+      <c r="H25" s="3">
+        <v>9347</v>
+      </c>
+      <c r="I25" s="2">
+        <v>9224</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2039</v>
+      </c>
+      <c r="K25" s="2">
+        <v>850.1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>440.4</v>
+      </c>
+      <c r="M25" s="2">
+        <v>391</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2978.94</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2978.94</v>
+      </c>
+      <c r="P25" s="3">
+        <v>5378.58</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>5377.65</v>
+      </c>
+      <c r="R25" s="3">
+        <v>440.09</v>
+      </c>
+      <c r="S25" s="2">
+        <v>440.09</v>
+      </c>
+      <c r="T25" s="3">
+        <v>747.63</v>
+      </c>
+      <c r="U25" s="2">
+        <v>747.63</v>
+      </c>
+      <c r="V25" s="3">
+        <v>830.74</v>
+      </c>
+      <c r="W25" s="2">
+        <v>830.74</v>
+      </c>
+      <c r="X25" s="3">
+        <v>936.37</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>936.37</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>863.13</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>863.13</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>803.57</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>803.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="3">
+        <v>675</v>
+      </c>
+      <c r="O26" s="2">
+        <v>675</v>
+      </c>
+      <c r="P26" s="3">
+        <v>595</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>510</v>
+      </c>
+      <c r="R26" s="3">
+        <v>751.48</v>
+      </c>
+      <c r="S26" s="2">
+        <v>751.48</v>
+      </c>
+      <c r="T26" s="3">
+        <v>626.5</v>
+      </c>
+      <c r="U26" s="2">
+        <v>626.5</v>
+      </c>
+      <c r="V26" s="3">
+        <v>631.75</v>
+      </c>
+      <c r="W26" s="2">
+        <v>631.75</v>
+      </c>
+      <c r="X26" s="3">
+        <v>891.8</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>652.5</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>891.8</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>652.5</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1006.55</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>188.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4240.5600000000004</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3344.47</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5089</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3542</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5313</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3914</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5513</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4176</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5772.5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>4674.3999999999996</v>
+      </c>
+      <c r="L27" s="3">
+        <v>9289.14</v>
+      </c>
+      <c r="M27" s="2">
+        <v>8288.52</v>
+      </c>
+      <c r="N27" s="3">
+        <v>11029.16</v>
+      </c>
+      <c r="O27" s="2">
+        <v>9905.2900000000009</v>
+      </c>
+      <c r="P27" s="3">
+        <v>12920.9</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>11832.4</v>
+      </c>
+      <c r="R27" s="3">
+        <v>13795.34</v>
+      </c>
+      <c r="S27" s="2">
+        <v>12568.2</v>
+      </c>
+      <c r="T27" s="3">
+        <v>14197.49</v>
+      </c>
+      <c r="U27" s="2">
+        <v>13171.47</v>
+      </c>
+      <c r="V27" s="3">
+        <v>14546</v>
+      </c>
+      <c r="W27" s="2">
+        <v>14564</v>
+      </c>
+      <c r="X27" s="3">
+        <v>17993.14</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>17405.939999999999</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>15303.76</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>15303.76</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>16167.947</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>16167.947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3755</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3755</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2394</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2394</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5737</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5737</v>
+      </c>
+      <c r="H28" s="3">
+        <v>32137</v>
+      </c>
+      <c r="I28" s="2">
+        <v>32137</v>
+      </c>
+      <c r="J28" s="3">
+        <v>9152.73</v>
+      </c>
+      <c r="K28" s="2">
+        <v>9152.73</v>
+      </c>
+      <c r="L28" s="3">
+        <v>10851.22</v>
+      </c>
+      <c r="M28" s="2">
+        <v>10851.22</v>
+      </c>
+      <c r="N28" s="3">
+        <v>12982.1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>12982.1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>12863.6</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>12863.6</v>
+      </c>
+      <c r="R28" s="3">
+        <v>5849.8</v>
+      </c>
+      <c r="S28" s="2">
+        <v>7867.67</v>
+      </c>
+      <c r="T28" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U28" s="2">
+        <v>5400</v>
+      </c>
+      <c r="V28" s="3">
+        <v>4319.8</v>
+      </c>
+      <c r="W28" s="2">
+        <v>5834</v>
+      </c>
+      <c r="X28" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>5900</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>4360</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>4360</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>4638.5</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>4638.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5941.49</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5547.57</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6903</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6903</v>
+      </c>
+      <c r="F29" s="3">
+        <v>7843</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7843</v>
+      </c>
+      <c r="H29" s="3">
+        <v>8481</v>
+      </c>
+      <c r="I29" s="2">
+        <v>8481</v>
+      </c>
+      <c r="J29" s="3">
+        <v>9299.9500000000007</v>
+      </c>
+      <c r="K29" s="2">
+        <v>9299.9500000000007</v>
+      </c>
+      <c r="L29" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M29" s="2">
+        <v>10900</v>
+      </c>
+      <c r="N29" s="3">
+        <v>12810.8</v>
+      </c>
+      <c r="O29" s="2">
+        <v>12810.8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1314801</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>13148.1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>14668</v>
+      </c>
+      <c r="S29" s="2">
+        <v>14668</v>
+      </c>
+      <c r="T29" s="3">
+        <v>15203</v>
+      </c>
+      <c r="U29" s="2">
+        <v>15203</v>
+      </c>
+      <c r="V29" s="3">
+        <v>15980.7</v>
+      </c>
+      <c r="W29" s="2">
+        <v>15980.7</v>
+      </c>
+      <c r="X29" s="3">
+        <v>16050.88</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>16050.88</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>16998.16</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>16998.16</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>18490.13</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>18490.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>32779.51</v>
+      </c>
+      <c r="C30" s="2">
+        <v>30448.21</v>
+      </c>
+      <c r="D30" s="3">
+        <v>19591</v>
+      </c>
+      <c r="E30" s="2">
+        <v>11816</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12640</v>
+      </c>
+      <c r="G30" s="2">
+        <v>7554</v>
+      </c>
+      <c r="H30" s="3">
+        <v>14171</v>
+      </c>
+      <c r="I30" s="2">
+        <v>9646</v>
+      </c>
+      <c r="J30" s="3">
+        <v>15569.4</v>
+      </c>
+      <c r="K30" s="2">
+        <v>12445.7</v>
+      </c>
+      <c r="L30" s="3">
+        <v>16837</v>
+      </c>
+      <c r="M30" s="2">
+        <v>12617</v>
+      </c>
+      <c r="N30" s="3">
+        <v>16749.02</v>
+      </c>
+      <c r="O30" s="2">
+        <v>15595.12</v>
+      </c>
+      <c r="P30" s="3">
+        <v>19480.13</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>18917</v>
+      </c>
+      <c r="R30" s="3">
+        <v>21722.84</v>
+      </c>
+      <c r="S30" s="2">
+        <v>16026.07</v>
+      </c>
+      <c r="T30" s="3">
+        <v>22502.57</v>
+      </c>
+      <c r="U30" s="2">
+        <v>16166.99</v>
+      </c>
+      <c r="V30" s="3">
+        <v>22261.756000000001</v>
+      </c>
+      <c r="W30" s="2">
+        <v>16913.490000000002</v>
+      </c>
+      <c r="X30" s="3">
+        <v>20685.650000000001</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>18508.526999999998</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>18911.560000000001</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>18911.560000000001</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>19170.28</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>19170.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3">
+        <v>821.47</v>
+      </c>
+      <c r="C31" s="2">
+        <v>798.27</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3">
+        <v>208</v>
+      </c>
+      <c r="K31" s="2">
+        <v>208</v>
+      </c>
+      <c r="L31" s="3">
+        <v>481</v>
+      </c>
+      <c r="M31" s="2">
+        <v>481</v>
+      </c>
+      <c r="N31" s="3">
+        <v>455.4</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P31" s="3">
+        <v>423</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>423</v>
+      </c>
+      <c r="R31" s="3">
+        <v>388.44</v>
+      </c>
+      <c r="S31" s="2">
+        <v>172.35</v>
+      </c>
+      <c r="T31" s="3">
+        <v>235.21</v>
+      </c>
+      <c r="U31" s="2">
+        <v>197.76</v>
+      </c>
+      <c r="V31" s="3">
+        <v>425.1</v>
+      </c>
+      <c r="W31" s="2">
+        <v>311.82</v>
+      </c>
+      <c r="X31" s="3">
+        <v>482.65</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>482.65</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>477.56</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>477.56</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>545.34</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>545.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3">
+        <v>16516</v>
+      </c>
+      <c r="C32" s="2">
+        <v>16041</v>
+      </c>
+      <c r="D32" s="3">
+        <v>21418</v>
+      </c>
+      <c r="E32" s="2">
+        <v>21418</v>
+      </c>
+      <c r="F32" s="3">
+        <v>21418</v>
+      </c>
+      <c r="G32" s="2">
+        <v>21418</v>
+      </c>
+      <c r="H32" s="3">
+        <v>25793</v>
+      </c>
+      <c r="I32" s="2">
+        <v>25793</v>
+      </c>
+      <c r="J32" s="3">
+        <v>33024</v>
+      </c>
+      <c r="K32" s="2">
+        <v>33024</v>
+      </c>
+      <c r="L32" s="3">
+        <v>38933</v>
+      </c>
+      <c r="M32" s="2">
+        <v>38933</v>
+      </c>
+      <c r="N32" s="3">
+        <v>43284</v>
+      </c>
+      <c r="O32" s="2">
+        <v>43280</v>
+      </c>
+      <c r="P32" s="3">
+        <v>43880</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>43880</v>
+      </c>
+      <c r="R32" s="3">
+        <v>43789.08</v>
+      </c>
+      <c r="S32" s="2">
+        <v>4378.08</v>
+      </c>
+      <c r="T32" s="3">
+        <v>46818.8</v>
+      </c>
+      <c r="U32" s="2">
+        <v>46818.8</v>
+      </c>
+      <c r="V32" s="3">
+        <v>47196.9</v>
+      </c>
+      <c r="W32" s="2">
+        <v>47196.9</v>
+      </c>
+      <c r="X32" s="3">
+        <v>58272</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>58272</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>35269.74</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>35269.74</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>45215.93</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>45215.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3">
+        <v>1230</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1048</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3">
+        <v>15361</v>
+      </c>
+      <c r="M33" s="2">
+        <v>14800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>8733</v>
+      </c>
+      <c r="O33" s="2">
+        <v>8571</v>
+      </c>
+      <c r="P33" s="3">
+        <v>8733.4</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>8606</v>
+      </c>
+      <c r="R33" s="3">
+        <v>13220</v>
+      </c>
+      <c r="S33" s="2">
+        <v>13220</v>
+      </c>
+      <c r="T33" s="3">
+        <v>15719</v>
+      </c>
+      <c r="U33" s="2">
+        <v>15719</v>
+      </c>
+      <c r="V33" s="3">
+        <v>16242</v>
+      </c>
+      <c r="W33" s="2">
+        <v>16243</v>
+      </c>
+      <c r="X33" s="3">
+        <v>20472</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>20472</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>23810</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>23810</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>24235</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>24235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>478</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>553</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1251</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1068</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1270.5</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1083.3900000000001</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1336.5</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1129.5899999999999</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1378.5</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1176.0899999999999</v>
+      </c>
+      <c r="R34" s="3">
+        <v>1607</v>
+      </c>
+      <c r="S34" s="2">
+        <v>2987.3</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1607</v>
+      </c>
+      <c r="U34" s="2">
+        <v>1582.88</v>
+      </c>
+      <c r="V34" s="3">
+        <v>1401.5</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1401.5</v>
+      </c>
+      <c r="X34" s="3">
+        <v>1401.5</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>1401.5</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>3852.58</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>3852.58</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>1940.2639999999999</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>1822.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1176</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1872</v>
+      </c>
+      <c r="E35" s="2">
+        <v>740</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2186</v>
+      </c>
+      <c r="G35" s="2">
+        <v>784</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2743</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1986</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2070</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2070</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2257.41</v>
+      </c>
+      <c r="M35" s="2">
+        <v>2257.41</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2565.3200000000002</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2565.3200000000002</v>
+      </c>
+      <c r="P35" s="3">
+        <v>2597</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>2597</v>
+      </c>
+      <c r="R35" s="3">
+        <v>2557.3200000000002</v>
+      </c>
+      <c r="S35" s="2">
+        <v>2557.3200000000002</v>
+      </c>
+      <c r="T35" s="3">
+        <v>4946</v>
+      </c>
+      <c r="U35" s="2">
+        <v>3837</v>
+      </c>
+      <c r="V35" s="3">
+        <v>4113.3900000000003</v>
+      </c>
+      <c r="W35" s="2">
+        <v>4025.39</v>
+      </c>
+      <c r="X35" s="3">
+        <v>3814.2359999999999</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>3814.24</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>7616.57</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>7616.57</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>6891.37</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>6891.37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="B36" s="3">
+        <v>35763</v>
+      </c>
+      <c r="C36" s="2">
+        <v>14000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>44392</v>
+      </c>
+      <c r="E36" s="2">
+        <v>42237</v>
+      </c>
+      <c r="F36" s="3">
+        <v>23390</v>
+      </c>
+      <c r="G36" s="2">
+        <v>21675</v>
+      </c>
+      <c r="H36" s="3">
+        <v>21720</v>
+      </c>
+      <c r="I36" s="2">
+        <v>20445</v>
+      </c>
+      <c r="J36" s="3">
+        <v>22995.65</v>
+      </c>
+      <c r="K36" s="2">
+        <v>21464</v>
+      </c>
+      <c r="L36" s="3">
+        <v>28248</v>
+      </c>
+      <c r="M36" s="2">
+        <v>24048</v>
+      </c>
+      <c r="N36" s="3">
+        <v>29133</v>
+      </c>
+      <c r="O36" s="2">
+        <v>24397</v>
+      </c>
+      <c r="P36" s="3">
+        <v>37498</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>35816</v>
+      </c>
+      <c r="R36" s="3">
+        <v>37655</v>
+      </c>
+      <c r="S36" s="2">
+        <v>36422</v>
+      </c>
+      <c r="T36" s="3">
+        <v>43554</v>
+      </c>
+      <c r="U36" s="2">
+        <v>43554</v>
+      </c>
+      <c r="V36" s="3">
+        <v>52500</v>
+      </c>
+      <c r="W36" s="2">
+        <v>52500</v>
+      </c>
+      <c r="X36" s="3">
+        <v>52500</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>52500</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>64038</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>64038</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>71264.2</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>71264.2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>146053</v>
-      </c>
-      <c r="D2">
-        <v>70973</v>
-      </c>
-      <c r="E2">
-        <v>40863</v>
-      </c>
-      <c r="G2">
-        <v>39010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="37" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3">
+        <v>23498.25</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9256</v>
+      </c>
+      <c r="D37" s="3">
+        <v>23571</v>
+      </c>
+      <c r="E37" s="2">
+        <v>12472</v>
+      </c>
+      <c r="F37" s="3">
+        <v>29599</v>
+      </c>
+      <c r="G37" s="2">
+        <v>16928</v>
+      </c>
+      <c r="H37" s="3">
+        <v>27236</v>
+      </c>
+      <c r="I37" s="2">
+        <v>16209</v>
+      </c>
+      <c r="J37" s="3">
+        <v>31397.03</v>
+      </c>
+      <c r="K37" s="2">
+        <v>19535</v>
+      </c>
+      <c r="L37" s="3">
+        <v>40407.699999999997</v>
+      </c>
+      <c r="M37" s="2">
+        <v>22970</v>
+      </c>
+      <c r="N37" s="3">
+        <v>42236.99</v>
+      </c>
+      <c r="O37" s="2">
+        <v>22737</v>
+      </c>
+      <c r="P37" s="3">
+        <v>32823</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>23555.599999999999</v>
+      </c>
+      <c r="R37" s="3">
+        <v>26858.76</v>
+      </c>
+      <c r="S37" s="2">
+        <v>26858.76</v>
+      </c>
+      <c r="T37" s="3">
+        <v>29773.84</v>
+      </c>
+      <c r="U37" s="2">
+        <v>29894.84</v>
+      </c>
+      <c r="V37" s="3">
+        <v>34123.620000000003</v>
+      </c>
+      <c r="W37" s="2">
+        <v>34123.620000000003</v>
+      </c>
+      <c r="X37" s="3">
+        <v>41571.4</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>41571.4</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>43513.39</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>43513.39</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>42286.860999999997</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>42286.860999999997</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="14">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>